--- a/homicidiosNegrosPais.xlsx
+++ b/homicidiosNegrosPais.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zsg-k\IdeaProjects\Excel-Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zsg-k\IdeaProjects\guiExample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC70AD52-CEF0-48B3-B016-D3321A8CE162}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF7A4EA-A196-4BB3-9B3C-7AEBCE3CC4AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="164" formatCode="0.00_);\(0.00\)"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -584,13 +584,13 @@
     <xf numFmtId="39" fontId="18" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -788,7 +788,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00;\-#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="#,##0.00;\-#,##0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -1244,7 +1244,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" activeCellId="5" sqref="C18 D18 E18 F18 G18 H18"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1509,20 +1509,19 @@
         <v>34242.333333333336</v>
       </c>
       <c r="D18" s="7">
-        <f>AVEDEV(B1:B18)</f>
-        <v>5946.2592592592591</v>
+        <f>MEDIAN(B1:B18)</f>
+        <v>33315.5</v>
       </c>
       <c r="E18" s="7">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
         <f>_xlfn.STDEV.P(B1:B18)</f>
         <v>7049.5810277396386</v>
       </c>
-      <c r="F18" s="7">
+      <c r="G18" s="7">
         <f>_xlfn.VAR.P(B1:B18)</f>
         <v>49696592.666666664</v>
-      </c>
-      <c r="G18" s="7">
-        <f>E18/C18</f>
-        <v>0.20587326684531734</v>
       </c>
       <c r="H18" s="8">
         <f>_xlfn.VAR.S(B1:B18)</f>
